--- a/Intra_blocking_probabilities.xlsx
+++ b/Intra_blocking_probabilities.xlsx
@@ -1,37 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>eMBB</t>
+  </si>
+  <si>
+    <t>uRLLC</t>
+  </si>
+  <si>
+    <t>mMTC</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,26 +63,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -353,177 +379,165 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>eMBB</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>uRLLC</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>mMTC</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>8.669620153371873e-05</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2.293246651069942e-07</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.293246618034549e-07</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.000401676968553664</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.389469662438145e-06</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.389469131643023e-06</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.001159962227036163</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.225308084902068e-05</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.225306249980854e-05</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.002584339734787563</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4.256340808112286e-05</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.256313539695663e-05</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.2021961552578402</v>
+      </c>
+      <c r="C2">
+        <v>0.1531182805530675</v>
+      </c>
+      <c r="D2">
+        <v>0.1176080928568255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.004885822612790737</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.0001154758122588428</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.000115473441108545</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.008247202814965261</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0002639961999197263</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.0002639819781685158</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.01281350110470026</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0005321865558670192</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.0005321216479973724</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.01868729257690055</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0009741373237876633</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.0009738971516514168</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="B3">
+        <v>0.205482731004889</v>
+      </c>
+      <c r="C3">
+        <v>0.1537263022888419</v>
+      </c>
+      <c r="D3">
+        <v>0.1170864369278961</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
         <v>5</v>
       </c>
-      <c r="B10" t="n">
-        <v>0.02592733455133243</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.001651883461890281</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.001651131064406263</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.03454948060911824</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.002632557747637834</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.002630499404015288</v>
+      <c r="B4">
+        <v>0.211658050481181</v>
+      </c>
+      <c r="C4">
+        <v>0.1545965211343736</v>
+      </c>
+      <c r="D4">
+        <v>0.1166828125750568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.2212263900452675</v>
+      </c>
+      <c r="C5">
+        <v>0.1561027463314663</v>
+      </c>
+      <c r="D5">
+        <v>0.1170530995882567</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0.2331354695309462</v>
+      </c>
+      <c r="C6">
+        <v>0.1587217142018996</v>
+      </c>
+      <c r="D6">
+        <v>0.1190614650116866</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0.2457392531087886</v>
+      </c>
+      <c r="C7">
+        <v>0.1627456845427383</v>
+      </c>
+      <c r="D7">
+        <v>0.1232963016016947</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.2576688280193095</v>
+      </c>
+      <c r="C8">
+        <v>0.1681402599421714</v>
+      </c>
+      <c r="D8">
+        <v>0.1298049614610157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>0.2681557010317068</v>
+      </c>
+      <c r="C9">
+        <v>0.174600977833332</v>
+      </c>
+      <c r="D9">
+        <v>0.1381487402937882</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>0.2769598485505436</v>
+      </c>
+      <c r="C10">
+        <v>0.1817017529052355</v>
+      </c>
+      <c r="D10">
+        <v>0.1476174231918349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0.2841629790922467</v>
+      </c>
+      <c r="C11">
+        <v>0.189032608329706</v>
+      </c>
+      <c r="D11">
+        <v>0.1574401146450678</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Intra_blocking_probabilities.xlsx
+++ b/Intra_blocking_probabilities.xlsx
@@ -399,142 +399,142 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>0.2021961552578402</v>
+        <v>0.1236236914343227</v>
       </c>
       <c r="C2">
-        <v>0.1531182805530675</v>
+        <v>0.1195289338492785</v>
       </c>
       <c r="D2">
-        <v>0.1176080928568255</v>
+        <v>0.1016562367363281</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="B3">
-        <v>0.205482731004889</v>
+        <v>0.1246429228334025</v>
       </c>
       <c r="C3">
-        <v>0.1537263022888419</v>
+        <v>0.1195520706432093</v>
       </c>
       <c r="D3">
-        <v>0.1170864369278961</v>
+        <v>0.1015953436706065</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>0.211658050481181</v>
+        <v>0.126031517024333</v>
       </c>
       <c r="C4">
-        <v>0.1545965211343736</v>
+        <v>0.1195963937346622</v>
       </c>
       <c r="D4">
-        <v>0.1166828125750568</v>
+        <v>0.1015357344116839</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="B5">
-        <v>0.2212263900452675</v>
+        <v>0.1278058355901828</v>
       </c>
       <c r="C5">
-        <v>0.1561027463314663</v>
+        <v>0.1196711328935924</v>
       </c>
       <c r="D5">
-        <v>0.1170530995882567</v>
+        <v>0.1014815874589406</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2331354695309462</v>
+        <v>0.1299685436314228</v>
       </c>
       <c r="C6">
-        <v>0.1587217142018996</v>
+        <v>0.1197866141414456</v>
       </c>
       <c r="D6">
-        <v>0.1190614650116866</v>
+        <v>0.1014395092309035</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="B7">
-        <v>0.2457392531087886</v>
+        <v>0.1325093574078941</v>
       </c>
       <c r="C7">
-        <v>0.1627456845427383</v>
+        <v>0.1199539182813555</v>
       </c>
       <c r="D7">
-        <v>0.1232963016016947</v>
+        <v>0.1014185838064203</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>0.2576688280193095</v>
+        <v>0.1354062847642867</v>
       </c>
       <c r="C8">
-        <v>0.1681402599421714</v>
+        <v>0.1201844892953037</v>
       </c>
       <c r="D8">
-        <v>0.1298049614610157</v>
+        <v>0.1014301474823273</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>15</v>
+        <v>5.5</v>
       </c>
       <c r="B9">
-        <v>0.2681557010317068</v>
+        <v>0.1386273549248631</v>
       </c>
       <c r="C9">
-        <v>0.174600977833332</v>
+        <v>0.1204897155077447</v>
       </c>
       <c r="D9">
-        <v>0.1381487402937882</v>
+        <v>0.1014873364949203</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>0.2769598485505436</v>
+        <v>0.1421326930084066</v>
       </c>
       <c r="C10">
-        <v>0.1817017529052355</v>
+        <v>0.1208805110122922</v>
       </c>
       <c r="D10">
-        <v>0.1476174231918349</v>
+        <v>0.1016044783971521</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>19</v>
+        <v>6.5</v>
       </c>
       <c r="B11">
-        <v>0.2841629790922467</v>
+        <v>0.145876750544922</v>
       </c>
       <c r="C11">
-        <v>0.189032608329706</v>
+        <v>0.1213669241626934</v>
       </c>
       <c r="D11">
-        <v>0.1574401146450678</v>
+        <v>0.1017964038362393</v>
       </c>
     </row>
   </sheetData>

--- a/Intra_blocking_probabilities.xlsx
+++ b/Intra_blocking_probabilities.xlsx
@@ -402,13 +402,13 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.1236236914343227</v>
+        <v>0.2171978409854734</v>
       </c>
       <c r="C2">
-        <v>0.1195289338492785</v>
+        <v>0.1652859505593201</v>
       </c>
       <c r="D2">
-        <v>0.1016562367363281</v>
+        <v>0.111431548172089</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -416,13 +416,13 @@
         <v>2.5</v>
       </c>
       <c r="B3">
-        <v>0.1246429228334025</v>
+        <v>0.225813474120418</v>
       </c>
       <c r="C3">
-        <v>0.1195520706432093</v>
+        <v>0.1696712649781052</v>
       </c>
       <c r="D3">
-        <v>0.1015953436706065</v>
+        <v>0.1172400718442176</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -430,13 +430,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.126031517024333</v>
+        <v>0.2332258874237312</v>
       </c>
       <c r="C4">
-        <v>0.1195963937346622</v>
+        <v>0.174600977833332</v>
       </c>
       <c r="D4">
-        <v>0.1015357344116839</v>
+        <v>0.1239842634385261</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -444,13 +444,13 @@
         <v>3.5</v>
       </c>
       <c r="B5">
-        <v>0.1278058355901828</v>
+        <v>0.2393532595799625</v>
       </c>
       <c r="C5">
-        <v>0.1196711328935924</v>
+        <v>0.1798902552177136</v>
       </c>
       <c r="D5">
-        <v>0.1014815874589406</v>
+        <v>0.1313053027487398</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -458,13 +458,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1299685436314228</v>
+        <v>0.2442457628721482</v>
       </c>
       <c r="C6">
-        <v>0.1197866141414456</v>
+        <v>0.1853606904800653</v>
       </c>
       <c r="D6">
-        <v>0.1014395092309035</v>
+        <v>0.1388353653802021</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -472,13 +472,13 @@
         <v>4.5</v>
       </c>
       <c r="B7">
-        <v>0.1325093574078941</v>
+        <v>0.2480253720769129</v>
       </c>
       <c r="C7">
-        <v>0.1199539182813555</v>
+        <v>0.1908622505718167</v>
       </c>
       <c r="D7">
-        <v>0.1014185838064203</v>
+        <v>0.146234955641171</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -486,13 +486,13 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>0.1354062847642867</v>
+        <v>0.2508405652603114</v>
       </c>
       <c r="C8">
-        <v>0.1201844892953037</v>
+        <v>0.1962854462736847</v>
       </c>
       <c r="D8">
-        <v>0.1014301474823273</v>
+        <v>0.1532140028665909</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -500,13 +500,13 @@
         <v>5.5</v>
       </c>
       <c r="B9">
-        <v>0.1386273549248631</v>
+        <v>0.2528370861609865</v>
       </c>
       <c r="C9">
-        <v>0.1204897155077447</v>
+        <v>0.2015658228574652</v>
       </c>
       <c r="D9">
-        <v>0.1014873364949203</v>
+        <v>0.1595409827238034</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -514,13 +514,13 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>0.1421326930084066</v>
+        <v>0.2541424964736441</v>
       </c>
       <c r="C10">
-        <v>0.1208805110122922</v>
+        <v>0.2066830865414496</v>
       </c>
       <c r="D10">
-        <v>0.1016044783971521</v>
+        <v>0.1650443973986256</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -528,13 +528,13 @@
         <v>6.5</v>
       </c>
       <c r="B11">
-        <v>0.145876750544922</v>
+        <v>0.2548610576915674</v>
       </c>
       <c r="C11">
-        <v>0.1213669241626934</v>
+        <v>0.2116567299885111</v>
       </c>
       <c r="D11">
-        <v>0.1017964038362393</v>
+        <v>0.1696099477556748</v>
       </c>
     </row>
   </sheetData>

--- a/Intra_blocking_probabilities.xlsx
+++ b/Intra_blocking_probabilities.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>eMBB</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>mMTC</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>eMBB_BP</t>
+  </si>
+  <si>
+    <t>uRLLC_BP</t>
+  </si>
+  <si>
+    <t>eMBB_DP</t>
+  </si>
+  <si>
+    <t>uRLLC_DP</t>
   </si>
 </sst>
 </file>
@@ -380,161 +395,260 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2">
+        <v>0.1977255893333161</v>
+      </c>
+      <c r="D2">
+        <v>0.1587217142018996</v>
+      </c>
+      <c r="E2">
+        <v>0.1036695904270237</v>
+      </c>
+      <c r="F2">
+        <v>0.09982669679377602</v>
+      </c>
+      <c r="G2">
+        <v>0.07802062014732995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.2076591216346518</v>
+      </c>
+      <c r="D3">
+        <v>0.1616042642020153</v>
+      </c>
+      <c r="E3">
+        <v>0.106853435872393</v>
+      </c>
+      <c r="F3">
+        <v>0.1040247917215859</v>
+      </c>
+      <c r="G3">
+        <v>0.07840755473247449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
+      <c r="B4">
+        <v>1.5</v>
+      </c>
+      <c r="C4">
+        <v>0.2171978409854734</v>
+      </c>
+      <c r="D4">
+        <v>0.1652859505593201</v>
+      </c>
+      <c r="E4">
+        <v>0.111431548172089</v>
+      </c>
+      <c r="F4">
+        <v>0.1086302272875599</v>
+      </c>
+      <c r="G4">
+        <v>0.07888993048209242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>0.2171978409854734</v>
-      </c>
-      <c r="C2">
-        <v>0.1652859505593201</v>
-      </c>
-      <c r="D2">
-        <v>0.111431548172089</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="B3">
+      <c r="C5">
         <v>0.225813474120418</v>
       </c>
-      <c r="C3">
+      <c r="D5">
         <v>0.1696712649781052</v>
       </c>
-      <c r="D3">
+      <c r="E5">
         <v>0.1172400718442176</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0.2332258874237312</v>
-      </c>
-      <c r="C4">
-        <v>0.174600977833332</v>
-      </c>
-      <c r="D4">
-        <v>0.1239842634385261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="B5">
-        <v>0.2393532595799625</v>
-      </c>
-      <c r="C5">
-        <v>0.1798902552177136</v>
-      </c>
-      <c r="D5">
-        <v>0.1313053027487398</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="F5">
+        <v>0.1135129461062019</v>
+      </c>
+      <c r="G5">
+        <v>0.079516530022279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
+        <v>2.5</v>
+      </c>
+      <c r="C6">
+        <v>0.2332258874237312</v>
+      </c>
+      <c r="D6">
+        <v>0.174600977833332</v>
+      </c>
+      <c r="E6">
+        <v>0.1239842634385261</v>
+      </c>
+      <c r="F6">
+        <v>0.1185589132048696</v>
+      </c>
+      <c r="G6">
+        <v>0.08034398123482016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>0.2393532595799625</v>
+      </c>
+      <c r="D7">
+        <v>0.1798902552177136</v>
+      </c>
+      <c r="E7">
+        <v>0.1313053027487398</v>
+      </c>
+      <c r="F7">
+        <v>0.1236665539238427</v>
+      </c>
+      <c r="G7">
+        <v>0.08143526945676351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>3.5</v>
+      </c>
+      <c r="C8">
         <v>0.2442457628721482</v>
       </c>
-      <c r="C6">
+      <c r="D8">
         <v>0.1853606904800653</v>
       </c>
-      <c r="D6">
+      <c r="E8">
         <v>0.1388353653802021</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
+      <c r="F8">
+        <v>0.1287391714903023</v>
+      </c>
+      <c r="G8">
+        <v>0.0828591383425579</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>0.2480253720769129</v>
+      </c>
+      <c r="D9">
+        <v>0.1908622505718167</v>
+      </c>
+      <c r="E9">
+        <v>0.146234955641171</v>
+      </c>
+      <c r="F9">
+        <v>0.133678452909801</v>
+      </c>
+      <c r="G9">
+        <v>0.08468990910228313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
         <v>4.5</v>
       </c>
-      <c r="B7">
-        <v>0.2480253720769129</v>
-      </c>
-      <c r="C7">
-        <v>0.1908622505718167</v>
-      </c>
-      <c r="D7">
-        <v>0.146234955641171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
+      <c r="C10">
+        <v>0.2508405652603114</v>
+      </c>
+      <c r="D10">
+        <v>0.1962854462736847</v>
+      </c>
+      <c r="E10">
+        <v>0.1532140028665909</v>
+      </c>
+      <c r="F10">
+        <v>0.138381582587055</v>
+      </c>
+      <c r="G10">
+        <v>0.08700715504112287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>0.2508405652603114</v>
-      </c>
-      <c r="C8">
-        <v>0.1962854462736847</v>
-      </c>
-      <c r="D8">
-        <v>0.1532140028665909</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="B9">
+      <c r="C11">
         <v>0.2528370861609865</v>
       </c>
-      <c r="C9">
+      <c r="D11">
         <v>0.2015658228574652</v>
       </c>
-      <c r="D9">
+      <c r="E11">
         <v>0.1595409827238034</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>0.2541424964736441</v>
-      </c>
-      <c r="C10">
-        <v>0.2066830865414496</v>
-      </c>
-      <c r="D10">
-        <v>0.1650443973986256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="B11">
-        <v>0.2548610576915674</v>
-      </c>
-      <c r="C11">
-        <v>0.2116567299885111</v>
-      </c>
-      <c r="D11">
-        <v>0.1696099477556748</v>
+      <c r="F11">
+        <v>0.1427426575010104</v>
+      </c>
+      <c r="G11">
+        <v>0.0898947509346881</v>
       </c>
     </row>
   </sheetData>
